--- a/gd/运营相关/GM指令需求.xlsx
+++ b/gd/运营相关/GM指令需求.xlsx
@@ -480,97 +480,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  sessionID: 1
-  command: dumb
-  characterID: 123
-  nickname:hahaha
-  minute:10
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: dumb-
-  characterID: 123
-  nickname:hahaha
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: rename
-  characterID: 123
-  nickname:hahaha
-  newname:ttttt
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: kickcharacter
-  characterID: 123
-  nickname:hahaha
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: removeallitem
-  characterID: 123
-  nickname:hahaha
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: sendmailID
-  characterID: 123
-  nickname:hahaha
-  id: 1
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: warn
-  characterID: 123
-  nickname:hahaha
-  content: XXX
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: deletechat
-  characterID: 123
-  nickname:hahaha
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>kicksameip dumbsameip</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chargecoin/chargenote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: chargecoin/chargenote
-  characterID: 123
-  nickname:hahaha
-  goldcount:-100
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -605,16 +519,6 @@
   </si>
   <si>
     <t>resetquest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-  sessionID: 1
-  command: resetquest
-  characterID: 123
-  nickname:hahaha
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -708,39 +612,6 @@
     <t>GM以走马灯/系统公告的方式，向全服发消息
 同一条内容，允许设置时间间隔和发送次数
 （走马灯：最多100个汉字、系统公告：最多80个汉字）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: removeitem
-  characterID: 123
-  nickname:hahaha
-  itemID:XXXX
-  count:3
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: sendmail
-  characterID: 123
-  nickname:hahaha
-  subject:XXXX
-  text:XXXX
-  coin:100
-  item:[
-        {
-           id:xxx
-           count:1
-        },
-        {
-           id:xxx
-           count:2
-        }
-        ]
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -804,58 +675,6 @@
   <si>
     <t>{
   sessionID: 1
-  result : (0 成功 非0 失败)
-  info：character not online
-sameinfo:{
-  127.0.0.1:
-  [
-  {
-   characterID:1
-   serverID:1
-   sceneID:1
-   level:1
-   lobbyID:2
-   nickname:haha
-   ip:127.0.0.1
-  },
-  {
-   characterID:1
-   serverID:1
-   sceneID:1
-   level:1
-   lobbyID:2
-   nickname:haha
-   ip:127.0.0.1
-  }
-  ],
-  10.233.140.4:
-  [
-  {
-   characterID:1
-   serverID:1
-   sceneID:1
-   level:1
-   lobbyID:2
-   nickname:haha
-   ip:10.233.140.4
-  },
-  {
-   characterID:1
-   serverID:1
-   sceneID:1
-   level:1
-   lobbyID:2
-   nickname:haha
-   ip:10.233.140.4
-  }
-  ]
-}
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
   command: showid
   nickname: test
 }
@@ -863,46 +682,6 @@
   sessionID: 1
   command: showallid
   username: 823463262@qq.com
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  result : 0
-  info：""
-  characterID:32505
-  nickname:test
-}
-{
-  userID: 123
-  sessionID: 1
-  result : 0
-  info：""
-characters:{
-  1:
-  [
-    {
-       characterID:123
-       nickname:XXXX
-     },
-    {
-       characterID:124
-       nickname:XXXX
-     },
-  ],
-  2:
-  [
-    {
-       characterID:125
-       nickname:XXXX
-     },
-    {
-       characterID:126
-       nickname:XXXX
-     },
-  ]
-}
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1123,39 +902,223 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-  sessionID: 1
-  command: showattr/showmonster/showitem/showequip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/showjindu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/showquest/showguild
-  characterID: 123
+    <t>showattr/showmonster/showitem/showequip/showjindu/showquest/showguild</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: dumb
+  puid: 123
+  nickname:hahaha
+  minute:10
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: dumb-
+  puid: 123
   nickname:hahaha
 }</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>showattr/showmonster/showitem/showequip/showjindu/showquest/showguild</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: rename
+  puid: 123
+  nickname:hahaha
+  newname:ttttt
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: kickcharacter
+  puid: 123
+  nickname:hahaha
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: removeallitem
+  puid: 123
+  nickname:hahaha
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: removeitem
+  puid: 123
+  nickname:hahaha
+  itemID:XXXX
+  count:3
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: sendmailID
+  puid: 123
+  nickname:hahaha
+  id: 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: sendmail
+  puid: 123
+  nickname:hahaha
+  subject:XXXX
+  text:XXXX
+  coin:100
+  item:[
+        {
+           id:xxx
+           count:1
+        },
+        {
+           id:xxx
+           count:2
+        }
+        ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: chargecoin/chargenote
+  puid: 123
+  nickname:hahaha
+  goldcount:-100
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: showattr/showmonster/showitem/showequip/showjindu/showquest/showguild
+  puid: 123
+  nickname:hahaha
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+  sessionID: 1
+  command: resetquest
+  puid: 123
+  nickname:hahaha
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: warn
+  puid: 123
+  nickname:hahaha
+  content: XXX
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  result : (0 成功 非0 失败)
+  info：character not online
+sameinfo:{
+  127.0.0.1:
+  [
+  {
+   puid:1
+   serverID:1
+   sceneID:1
+   level:1
+   lobbyID:2
+   nickname:haha
+   ip:127.0.0.1
+  },
+  {
+   puid:1
+   serverID:1
+   sceneID:1
+   level:1
+   lobbyID:2
+   nickname:haha
+   ip:127.0.0.1
+  }
+  ],
+  10.233.140.4:
+  [
+  {
+   puid:1
+   serverID:1
+   sceneID:1
+   level:1
+   lobbyID:2
+   nickname:haha
+   ip:10.233.140.4
+  },
+  {
+   puid:1
+   serverID:1
+   sceneID:1
+   level:1
+   lobbyID:2
+   nickname:haha
+   ip:10.233.140.4
+  }
+  ]
+}
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  command: deletechat
+  puid: 123
+  nickname:hahaha
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionID: 1
+  result : 0
+  info：""
+  puid:32505
+  nickname:test
+}
+{
+  userID: 123
+  sessionID: 1
+  result : 0
+  info：""
+characters:{
+  1:
+  [
+    {
+       puid:123
+       nickname:XXXX
+     },
+    {
+       puid:124
+       nickname:XXXX
+     },
+  ],
+  2:
+  [
+    {
+       puid:125
+       nickname:XXXX
+     },
+    {
+       puid:126
+       nickname:XXXX
+     },
+  ]
+}
+}</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1760,6 +1723,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -2148,8 +2114,8 @@
   </sheetPr>
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -2219,10 +2185,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>58</v>
@@ -2236,13 +2202,13 @@
         <v>66</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>93</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2259,7 +2225,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>58</v>
@@ -2290,7 +2256,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>59</v>
@@ -2307,7 +2273,7 @@
         <v>98</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="102" x14ac:dyDescent="0.15">
@@ -2324,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>55</v>
@@ -2341,7 +2307,7 @@
         <v>95</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="102" x14ac:dyDescent="0.15">
@@ -2354,7 +2320,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>60</v>
@@ -2385,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>60</v>
@@ -2414,7 +2380,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>60</v>
@@ -2444,14 +2410,14 @@
       <c r="E9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>143</v>
+      <c r="F9" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -2473,10 +2439,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>62</v>
@@ -2500,16 +2466,16 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="45" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -2522,21 +2488,21 @@
     </row>
     <row r="12" spans="2:14" s="38" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -2544,7 +2510,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="39" customFormat="1" ht="187" x14ac:dyDescent="0.15">
@@ -2558,10 +2524,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>61</v>
@@ -2577,7 +2543,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:14" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.15">
@@ -2591,10 +2557,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>56</v>
@@ -2622,16 +2588,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -2653,16 +2619,16 @@
         <v>12</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="40" t="s">
@@ -2689,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>55</v>
@@ -2708,75 +2674,75 @@
     </row>
     <row r="18" spans="2:12" s="42" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="42" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:12" s="42" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -2798,7 +2764,7 @@
     </row>
     <row r="22" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="54" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -2813,7 +2779,7 @@
     </row>
     <row r="23" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="48" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -2828,87 +2794,87 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C24" s="26" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C26" s="26" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C27" s="26" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="48" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C30" s="26" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D31" s="26" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D32" s="26" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D33" s="26" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D34" s="26" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D35" s="26" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D36" s="26" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D37" s="26" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D38" s="26" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D39" s="26" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D40" s="26" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="26" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/gd/运营相关/GM指令需求.xlsx
+++ b/gd/运营相关/GM指令需求.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/运营相关/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34040" windowHeight="19440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="34035" windowHeight="19440"/>
   </bookViews>
   <sheets>
     <sheet name="GM指令需求" sheetId="9" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="186">
   <si>
     <t>★★★★★</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,14 +78,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>禁止指定服务器的某ID在XX分钟内发言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除指定服务器的某ID禁言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>例如，将某服务器ID为123456改为：名字123456</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -111,15 +98,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>删除指定唯一码的物品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>踢角色下线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>将指定服务器的某ID强制下线</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -172,10 +151,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>kickcharacter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>dumb-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -228,15 +203,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>扣除指定服务器的某ID背包、仓库金钱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>发送GM邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendmailID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -257,61 +224,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：character not online
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>返钱&amp;发送道具指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：character not online
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：XXXXX
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：XXXX
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：XXXXX
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：XXXX
-}
-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -421,27 +334,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>禁止帐号下所有角色（一段时间/永久）登陆游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>由于您的昵称中存在违规文字，现将您的昵称修改为“新昵称（newname:ttttt(base64)）”，感谢您的理解与配合！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm_mail.xml  id : 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm_mail.xml  id : 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm_mail.xml  id : 3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm_mail.xml  id : 5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -481,10 +374,6 @@
   </si>
   <si>
     <t>kicksameip dumbsameip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargecoin/chargenote</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -544,11 +433,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lockuser/lockuser-
-注：时间不能超过10位数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>showsameip</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -570,18 +454,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：gm command success
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>走马灯/系统公告</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>——</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -591,14 +463,6 @@
   </si>
   <si>
     <t>deletebroadcast</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除所有正在定时发送的GM走马灯/系统公告消息，不影响玩家走马灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>走马灯/系统公告</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -609,80 +473,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>GM以走马灯/系统公告的方式，向全服发消息
-同一条内容，允许设置时间间隔和发送次数
-（走马灯：最多100个汉字、系统公告：最多80个汉字）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: broadcast
-  count: 5   （重复次数）
-  interval:8 (单位分钟)
-  message: XXXX 
-  type:1/2 (1是走马灯 2是系统公告)
-  serverlist:[  （serverlist只有一个id 并且是 0 代表全部发送）
- {
-  id:1
-  },
- {
-  id:2
-  }
-]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>根据昵称/用户名查询id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: deletebroadcast
-  type:1/2 (1是走马灯 2是系统公告)
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：clear success
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>showid根据昵称返回角色id
-showallid根据用户名返回所有角色昵称和角色ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: lockuser
-  username: test@163.com
-  minute:10
-}
-{
-  sessionID: 1
-  command: lockuser-
-  username: test@163.com
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: showid
-  nickname: test
-}
-{
-  sessionID: 1
-  command: showallid
-  username: 823463262@qq.com
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -765,104 +556,6 @@
   </si>
   <si>
     <t>根据角色名/userID查询玩家基础状态（补充一些点）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>showid/showallid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：character not online
-  System：IOS
-  Server：XXX
-  level : 1
-  exp : 1
-  coin: 1
-  diamond: 1
-  energy: 1
-  }
-}
-{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：character not online
-  item_list:
-   [
-    {
-       id:1
-       current_count:20
-       slot: 1
-       item_id: item_00001  
-    },
-    {
-        id:1
-        current_count:20
-        slot: 1
-        item_id: item_00001  
-    }
-  ]
-}
-{
-  sessionID: 1
-  result : (0 成功 非0 失败)
-  info：character not online
-  quest_list:
-   [
-    {
-        id:1
-        status:0  
-    },
-    {
-        id:1
-        status:0  
-    }
-  ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">返回角色属性 宠物 道具 装备 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">各系统进度 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">任务 公会（从数据中读取 部分属性和任务可能不是实时同步的）根据角色名/userID
-</t>
-    </r>
-    <rPh sb="7" eb="8">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dao'ju</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ge'xi't</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jin'du</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>gong'hui</t>
-    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -902,109 +595,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>showattr/showmonster/showitem/showequip/showjindu/showquest/showguild</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: dumb
-  puid: 123
-  nickname:hahaha
-  minute:10
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: dumb-
-  puid: 123
-  nickname:hahaha
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: rename
-  puid: 123
-  nickname:hahaha
-  newname:ttttt
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: kickcharacter
-  puid: 123
-  nickname:hahaha
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: removeallitem
-  puid: 123
-  nickname:hahaha
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: removeitem
-  puid: 123
-  nickname:hahaha
-  itemID:XXXX
-  count:3
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: sendmailID
-  puid: 123
-  nickname:hahaha
-  id: 1
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: sendmail
-  puid: 123
-  nickname:hahaha
-  subject:XXXX
-  text:XXXX
-  coin:100
-  item:[
-        {
-           id:xxx
-           count:1
-        },
-        {
-           id:xxx
-           count:2
-        }
-        ]
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: chargecoin/chargenote
-  puid: 123
-  nickname:hahaha
-  goldcount:-100
-}</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  command: showattr/showmonster/showitem/showequip/showjindu/showquest/showguild
-  puid: 123
-  nickname:hahaha
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
   sessionID: 1
@@ -1016,11 +606,559 @@
   <si>
     <t>{
   sessionID: 1
+  command: deletechat
+  puid: 123
+  nickname:hahaha
+}</t>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: dumb-
+  puid: 123
+  nickname:hahaha
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: dumb
+  puid: 123
+  nickname:hahaha
+  minute:10
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止某ID在XX分钟内发言</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除某ID禁言</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock/lock-
+注：时间不能超过10位数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止某角色（一段时间/永久）登陆游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: rename
+  puid: 123
+  nickname:hahaha
+  newname:ttttt
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1
+  command: kick
+  puid: 123
+  nickname:hahaha
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将某ID强制下线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mailSys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.xml  id : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailSys.xml  id : 1001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定唯一码的物品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sendmailI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1
+  command: removeallitem
+  puid: 123
+  nickname:hahaha
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: sendmailID
+  puid: 123
+  nickname:hahaha
+  id: 1
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId: 1
   command: warn
   puid: 123
   nickname:hahaha
-  content: XXX
+  content: xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 }</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 1
+  result : (0 成功 非0 失败)
+  info：character not online
+}
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：XXXXX
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 1
+  command: lock
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>puid: 123
+  nickname:hahaha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  minute:10
+}
+{
+  sessionI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 1
+  command: lock-
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>puid: 123
+  nickname:hahaha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ecuct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>coin/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decuctdiamond</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailSys.xml  id : 1002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 1
+  command: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decuct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>coin/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decuctdiamond</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  puid: 123
+  nickname:hahaha
+  count:100
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailSys.xml  id : 1003
+mailSys.xml  id : 1004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+}
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除指定服务器的某ID金币/钻石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1072,23 +1210,85 @@
   ]
 }
 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  sessionID: 1
+  result : (0 成功 非0 失败)
+  info：XXXXX
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：gm command success
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: broadcast
+  count: 5   （重复次数）
+  interval: 8 (单位分钟)
+  message: xxxx
+  language: en/zh-CN
+  type: 聊天= 1; 走马灯 = 2; 系统提示= 3; 系统公告 = 4;
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM以聊天/走马灯/系统提示/系统公告的方式，向全服发消息
+同一条内容，允许设置时间间隔和发送次数
+（走马灯：最多100个汉字、系统公告：最多80个汉字）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天/走马灯/系统提示/系统公告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：clear success
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: deletebroadcast
+  type: 聊天= 1; 走马灯 = 2; 系统提示= 3; 系统公告 = 4;
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除所有正在定时发送的GM聊天/走马灯/系统提示/系统公告消息，不影响玩家消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>showid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>showallid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
   sessionID: 1
-  command: deletechat
-  puid: 123
-  nickname:hahaha
+  command: showallid
+  username: 823463262@qq.com
 }</t>
-  </si>
-  <si>
-    <t>{
-  sessionID: 1
-  result : 0
-  info：""
-  puid:32505
-  nickname:test
-}
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
   userID: 123
   sessionID: 1
@@ -1119,6 +1319,295 @@
   ]
 }
 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>showid根据昵称返回角色id
+showallid根据用户名返回所有角色昵称和角色ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: showid
+  nickname: test
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  sessionId: 1
+  result : 0
+  info：""
+  puid:32505
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>showid根据昵称返回角色id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>showattr/showmonster/showitem/showequip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/showguild</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/showpro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/showquest</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: showattr/showmonster/showitem/showequip/showguild/showprogress/showquest
+  puid: 123
+  nickname:hahaha
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>返回角色属性 宠物 道具 装备 公会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各系统进度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">任务
+</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ge'xi't</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin'du</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//showattr---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  device：xxxx
+  server：xxxx
+  platform : xxxx
+  level : 1
+  exp : 1
+  coin: 1
+  buyDiamond: 1
+  freeDiamond: 1
+  fatigue: 1
+  }
+}
+//showmonster---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  monsterList:
+  [
+    {id:1,monster:xgXiaochou3,stage:0,level:1,exp:0}
+  ]
+}
+//showitem---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  itemList:
+  [
+    {itemId:1000,count:1}
+  ]
+}
+//showequip---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  equipList:
+  [
+    {id:1,equipId:1000,stage:1,level:1,monsterId:1}
+  ]
+}
+//showguild---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  guildId：1
+  position：1
+  contribution：1
+  totalContribution：1
+}
+//showprogress---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  instanceNormalTopChapter:1
+  instanceNormalTopIndex:1
+  instanceHardTopChapter：
+  instanceHardTopIndex：1
+  hole:{1:1,2:1}
+  tower:{1:1,2:1}
+}
+//showquest---------------------
+{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：xxxx
+  complete:[1,2]
+  completeDaily:[1,2]
+  current:{40005:0,40004:0}
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: sendmail
+  puid: 123
+  nickname:hahaha
+  subject:xxxx
+  text:xxxx
+  coin:100
+  item:[
+        {
+           id:xxx
+           count:1
+        },
+        {
+           id:xxx
+           count:2
+        }
+        ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  sessionId: 1
+  command: removeitem
+  puid: 123
+  nickname:hahaha
+  id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  count:3
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1558,7 +2047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,9 +2136,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1682,9 +2168,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1694,15 +2177,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1726,6 +2200,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -1802,10 +2300,10 @@
     <cellStyle name="常规 7" xfId="24"/>
     <cellStyle name="常规 8" xfId="31"/>
     <cellStyle name="常规 9" xfId="32"/>
-    <cellStyle name="检查单元格 2" xfId="25"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="28"/>
     <cellStyle name="超链接 3" xfId="26"/>
+    <cellStyle name="检查单元格 2" xfId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1817,6 +2315,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2109,31 +2610,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="20" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="56.375" style="26" customWidth="1"/>
     <col min="7" max="7" width="35" style="26" customWidth="1"/>
-    <col min="8" max="8" width="51.6640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="26" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="26" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="51.625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="26" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="26" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="26" customWidth="1"/>
     <col min="12" max="12" width="29" style="26" customWidth="1"/>
     <col min="13" max="13" width="49.5" style="26" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="26"/>
+    <col min="14" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="18" x14ac:dyDescent="0.15">
@@ -2141,40 +2642,40 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="119" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2184,31 +2685,31 @@
       <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>58</v>
+      <c r="E2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="30" t="s">
-        <v>66</v>
+      <c r="K2" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2221,25 +2722,25 @@
       <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>15</v>
+      <c r="E3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>67</v>
+      <c r="K3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2253,32 +2754,32 @@
         <v>8</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="102" x14ac:dyDescent="0.15">
+      <c r="K4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="99" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>0</v>
@@ -2286,234 +2787,234 @@
       <c r="D5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>23</v>
+      <c r="E5" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>143</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="102" x14ac:dyDescent="0.15">
+      <c r="K5" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="99" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>60</v>
+      <c r="E6" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="136" x14ac:dyDescent="0.15">
+      <c r="K6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="132" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>146</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="119" x14ac:dyDescent="0.15">
+      <c r="K7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>60</v>
+      <c r="E8" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="323" x14ac:dyDescent="0.15">
+      <c r="K8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="313.5" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="119" x14ac:dyDescent="0.15">
+      <c r="K9" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>162</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="409" x14ac:dyDescent="0.15">
-      <c r="B11" s="37" t="s">
-        <v>46</v>
+      <c r="K10" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>160</v>
+      <c r="E11" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>182</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
-      <c r="K11" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" s="38" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="17" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" s="39" customFormat="1" ht="187" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="38" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2521,129 +3022,129 @@
         <v>1</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="K13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>74</v>
-      </c>
       <c r="L13" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" s="39" customFormat="1" ht="119" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="38" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="32" t="s">
+      <c r="E14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="39" customFormat="1" ht="409" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="C16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" s="39" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>2</v>
@@ -2652,229 +3153,250 @@
         <v>8</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="42" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="40" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="23" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="42" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="40" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="25" t="s">
-        <v>129</v>
-      </c>
+      <c r="K19" s="25"/>
       <c r="L19" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="42" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="40" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="51"/>
-    </row>
-    <row r="23" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="51"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C24" s="26" t="s">
-        <v>142</v>
-      </c>
+    <row r="21" spans="2:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C26" s="26" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C27" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="48" t="s">
-        <v>162</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C28" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C30" s="26" t="s">
-        <v>157</v>
+      <c r="B30" s="43" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D31" s="26" t="s">
-        <v>150</v>
+      <c r="C31" s="26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D32" s="26" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D33" s="26" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D34" s="26" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D35" s="26" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D36" s="26" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D37" s="26" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D38" s="26" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D39" s="26" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D40" s="26" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
-        <v>156</v>
+      <c r="D41" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2895,151 +3417,151 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/gd/运营相关/GM指令需求.xlsx
+++ b/gd/运营相关/GM指令需求.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GM指令需求" sheetId="9" r:id="rId1"/>
     <sheet name="邮件内容" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="191">
   <si>
     <t>★★★★★</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1607,6 +1607,35 @@
   count:3
 }</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：gm command success
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给指定玩家或者所有玩家设备推送消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  command: push
+  funplusid:[1111,2222] （空表示给所有设备推送）
+  message: xxxx
+}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2613,10 +2642,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:N42"/>
+  <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3227,67 +3256,75 @@
     </row>
     <row r="20" spans="2:12" s="40" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:12" s="40" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G22" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H22" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="46"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="49" t="s">
-        <v>129</v>
-      </c>
+      <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -3300,8 +3337,8 @@
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
-        <v>127</v>
+      <c r="B24" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -3314,88 +3351,103 @@
       <c r="K24" s="48"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C25" s="26" t="s">
-        <v>111</v>
-      </c>
+    <row r="25" spans="2:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C26" s="26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C27" s="26" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C28" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C29" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="43" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C31" s="26" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C32" s="26" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D32" s="26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D33" s="26" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D34" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D35" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D36" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D37" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D38" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D39" s="26" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D40" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D41" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D42" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" s="26" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="26" t="s">
         <v>125</v>
       </c>
     </row>

--- a/gd/运营相关/GM指令需求.xlsx
+++ b/gd/运营相关/GM指令需求.xlsx
@@ -1545,6 +1545,65 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>{
+  sessionId: 1
+  command: removeitem
+  puid: 123
+  nickname:hahaha
+  id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  count:3
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  sessionId: 1
+  result : (0 成功 非0 失败)
+  info：gm command success
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给指定玩家或者所有玩家设备推送消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   sessionId: 1
   command: sendmail
@@ -1567,75 +1626,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-  sessionId: 1
-  command: removeitem
-  puid: 123
-  nickname:hahaha
-  id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  count:3
-}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>push</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  sessionId: 1
-  result : (0 成功 非0 失败)
-  info：gm command success
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>给指定玩家或者所有玩家设备推送消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   sessionId: 1
   command: push
-  funplusid:[1111,2222] （空表示给所有设备推送）
-  message: xxxx
+  funplusid:[1111,2222]   （空表示给所有设备推送）
+  defaultmsg: "hello"
+  languagemsg:{  （空表示只推送defaultmsg）
+                 "en": "hello",
+                 "zh-CN":"你好"}
+                }
 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言推送</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2645,7 +2649,7 @@
   <dimension ref="B1:N43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2881,7 +2885,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>150</v>
@@ -2941,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>152</v>
@@ -3256,21 +3260,21 @@
     </row>
     <row r="20" spans="2:12" s="40" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
